--- a/testDAL/GetReport.xlsx
+++ b/testDAL/GetReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -23,30 +23,18 @@
     <t>测试概括</t>
   </si>
   <si>
-    <t>APP名称</t>
-  </si>
-  <si>
-    <t>APP大小</t>
-  </si>
-  <si>
-    <t>APP版本</t>
+    <t>web名称</t>
+  </si>
+  <si>
+    <t>浏览器类型</t>
+  </si>
+  <si>
+    <t>浏览器版本</t>
   </si>
   <si>
     <t>测试日期</t>
   </si>
   <si>
-    <t>'monkneyTest'</t>
-  </si>
-  <si>
-    <t>0M</t>
-  </si>
-  <si>
-    <t>'1.0'</t>
-  </si>
-  <si>
-    <t>2016-12-01 15:58 PM</t>
-  </si>
-  <si>
     <t>用例总数</t>
   </si>
   <si>
@@ -59,13 +47,10 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>24秒</t>
-  </si>
-  <si>
     <t>脚本语言</t>
   </si>
   <si>
-    <t>appium+python3</t>
+    <t>selenium+python3</t>
   </si>
   <si>
     <t>测试手机详情</t>
@@ -227,7 +212,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -302,10 +293,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,6 +306,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1257692</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="时讯汇·科技-01.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5401067" cy="5401067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,7 +642,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
@@ -615,11 +651,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
@@ -636,48 +670,30 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -685,21 +701,15 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -713,109 +723,110 @@
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -829,7 +840,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -846,89 +857,89 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3">
         <v>1001</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -936,47 +947,47 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3">
         <v>1001</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
